--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/74_Trabzon_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/74_Trabzon_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C2F326-15A4-4539-9943-4C45084F0B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8252A9B1-ED8D-4BBA-8205-131383C63594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{D2E75E19-BEE3-4131-A170-87881813CB74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{B27F93E1-156D-40CC-9E39-8AF7EF9696EE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -962,15 +962,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{344D2D21-13C5-4F26-BE67-5D1C4C31703C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{020B4C2C-5544-4DD3-B7C4-29E59873236E}"/>
-    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{46869361-9A87-4727-893C-663C422D7B10}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{B41B7F50-2173-4148-965D-ED913FC8148C}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{8987499F-BE76-4717-9ACC-3BB5ED143CEC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{50DE3947-8256-440B-8C41-DBA497A4E9D1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{99129979-98CF-4B44-8183-234CE34D20B6}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{BF91C988-45D4-4149-B9AA-49C7E175CC59}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{1CC40A22-487D-4D87-BB39-F148532C5C15}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D28C4844-84BF-4931-AC40-C6125EC06814}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C81BFA73-90A1-43DE-BECB-09F39AE8D750}"/>
+    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{4CF648BF-3F1F-4B52-ACBD-50A5A017A27B}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{C37E53B2-64B6-4FCE-B95B-BC97D181CF54}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{307E3E80-6234-451D-9E5C-EA49EF9BD5A8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{FB4596C3-BE83-48E1-AFEB-1DFD87567117}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{05A04BE3-EF12-4683-AD7C-BB259E2D8569}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{723CC1B7-169B-4C00-AC23-25CEEF986EFF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{F9E86912-909F-4EE6-8F17-4519E98563BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18187D-45C3-4D74-A292-7616A2AC75BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACC9EB-9CC5-4572-B31C-0F3B2F472708}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2602,18 +2602,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6027F35-BFA3-4166-A9D3-8A3BBC9CEF5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1312FFCE-6DBD-41AA-AED8-07331548FA8E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27378DD9-ABF7-4CED-99BE-05BBA5B10326}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E2C11B84-3CF7-48BA-B8C3-8562B24DC3B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CBAA745-0F7A-4629-A7EB-5F2B6EB8511E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E83C0A89-467B-454E-8CD7-1403091CDE4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5C2CA00-694F-436F-83FB-508C61BCBA78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9311CC8-6CC3-490E-A595-38B7B689E4E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1F786CC-35BA-4CC3-8249-6812292D2F9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{384C24C4-0281-433A-A80B-BD6C7FAAEC66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C93F74B-E730-4815-AB7A-CFC2FC672F1D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1282CDE5-0893-405F-A3DA-1610A1E436CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C7D8D35-DE44-48C5-B1B1-8B1F2988AFA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF79CF4E-87D1-4B4D-A04E-09DF7DCA0B04}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC39873E-74FA-4690-8497-B0D1EF0ED7FC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A829DECC-066B-4351-8BBC-78DB382C75C9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F892DC67-3C5F-4F94-9B9A-5E95E00F0E08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B753C4C4-6BD5-4F12-A59C-F09CC723C74C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E9C7EF6-8B97-41CA-9B5D-32210A50348E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCAEF9AF-560A-4447-8790-E157A7C5B720}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D86A3EE-E4D9-4196-8917-17F7B4FC1638}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6610CBD4-684F-42F5-8F47-5551249DCF4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F74D3D74-A2A2-44F9-B9E8-4C3B2641E0E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C371EF1A-09CF-4EB0-B1FC-E1DED8401142}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0873BE-F44E-4043-8192-86204588E7FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B51E21-39BB-48A5-AA1F-B911724E094A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3876,18 +3876,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DB5CA43-23D7-42F8-97E4-76E564F4DDED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5E3A50A-5F01-468C-BD43-FCDA5B3C3DC7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7EFB52B5-A4B0-4924-86A0-081F8B17B833}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85CFB533-04D7-466C-922D-042B95815059}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F8F5660-A891-4D4F-BD9C-6F3F2B0B0C58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B69E9FD6-4D28-4F0A-8A6C-A4AA7136AB50}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1433C467-9BA9-47D5-8292-5709873F9EE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAED6341-371F-481B-BB98-A16469F923F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{082AD76C-C9C4-415B-9179-A50AA11D0913}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D6316AF-515D-4222-BE2D-FCA34C28D7FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B7661E5-7653-42FA-8719-29C92F39310E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B36F419-1859-4ECB-9D40-E29CE6EA28C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A03ACCF-E517-4CF3-8FD3-D4909ACE92F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3378AAE-AF2C-4131-B5BE-57DBE0C5ECE2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE9761E8-E6FB-4F20-BAEB-281732058BBC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00AA4DD5-BA19-4D4C-B002-1C404DC797B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4538431-4DD5-4231-BC97-32D2C8B5BA07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7EE93864-A9DC-44CA-B7A3-96C0513BDF90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BD72C35-DC66-4040-BD4C-2A379E2DA922}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1240FE3-776F-4C4D-BB83-63BB1C48C168}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E348DF6D-F670-4A3D-AE27-C426AA3EBFD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51DB441E-AA8B-4B93-8A7F-81243B41D5FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03812EDC-65E8-498E-A670-FC857FA1B3C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB682D8C-EE83-45E8-9556-8C24AFFDA5D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3900,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF37886-CBAE-4CBB-A382-1B287992A093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF377A4-39BD-42D9-93D7-28EE2C1761F0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5150,18 +5150,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DB420BD-70F1-47F4-93CA-8E2FE5D741DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9C265BA-4A02-45C2-A424-90B0E6E779D1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F707AD77-3AA6-4D59-89D4-7D03BC7195BA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75024BD4-343F-4D21-9D84-85B582985645}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1319410D-1201-44B9-8165-904292999B03}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28E6E2DC-65FF-48DD-AE50-98362E45D9C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4964FF48-2D39-4047-AFD7-CEAB25E16AA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{856F3862-A35F-4B10-9A02-DEF49A9C51F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8AF2AD9-374D-4AAE-8230-94F7F9D66E39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C9D23F6-FA1C-4C4C-8A79-849315371E17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C51D7E8-3470-47E8-8A86-5F087DB5A810}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4250DF05-8F38-4D5A-A0A3-1806051EADE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C7D77AF-76ED-4597-90FF-1224B0CDC6B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C0F524D-6EA5-4E3D-9C70-02F16811912D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03D81070-107A-4D2C-8E95-2508D76BF2BC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A216E48-698C-4FE7-98D3-17519AED1CBA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6635D53E-0B49-4F3E-A166-0D0B92327ACD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31A792E7-7745-4F1D-BF6F-46ABEEE11742}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A776ECA7-111D-4F92-BBC2-1147091F7C69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE48130C-90F4-453E-AC0D-F5078E7C0C67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97C60D13-E9CD-4C6D-BAD1-9CB096022B63}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6C9DC06-3C61-46E3-90DB-30A11DE9F745}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F33F8895-1230-4C96-9A78-1B75B8DFB331}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D07EA2B8-5F2B-4C8F-8682-1116ACE69EBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5174,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABBF3B-82A7-4192-BEA7-97DDC9B3ED80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90979E1B-FB1D-49FD-9B10-9B0B1C4E642A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6420,18 +6420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AA942F8-62B3-4BD3-897F-9DA52091595D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DE00C4A-3D2F-48D3-A857-A07EB3665B3A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBE29988-0E45-44F0-B86B-0DEF22CAD1CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06BBC532-7252-4023-ACCD-9E5BF2DBC726}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C13F2F2-40E7-4E40-8FC6-20FD22164DFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67565F8E-915C-47EB-81C4-A94A5C23D72B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEFE821B-4EA0-41C0-A0C3-60CBFBB1DD6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{365E4DDA-70D2-42FD-BD58-23801E1032C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{275FE2DC-DE47-42A7-9C47-E5D154C6E223}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE14989D-F139-44CD-B505-4CC71D1CBCFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8534C6B6-DB85-49A3-80DA-296172C57D9B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5EFFE82B-3551-4377-A8CF-EAD2E40382E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28B72C83-EA9C-4ECA-9CD1-D878AC72C153}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{023630B7-2847-4DC1-BB41-7CA564F1F4D8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B9E74C4-15B5-47C2-80B6-FE411DE0E436}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{88575FF5-B9E9-4729-BDD3-233A2F91E9F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7ED4BD6-5F7F-4E7F-A0C2-634323C272EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D900B42D-1807-4D69-AC0C-875D081E2204}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E11ED00F-07E5-45F9-B3DE-8A56CCD3B898}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D79B88C-61A1-4132-A482-115E7318D6C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57B9AF1B-D74C-4769-A363-9EE472BF4BA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{574D00B1-ECA2-484D-BE39-2A631A4990F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECC5546C-324C-4200-819E-D80C82DFA8FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B771F98-1CFB-4909-B40B-8DD3EDE48720}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA319E-C8BD-4A6D-A4E8-22467F166E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703240B4-659D-4F75-8784-0D04036AC115}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7706,18 +7706,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D4BB14C-6F65-4BA2-B55A-18AE81E952CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A56F914-3D1C-4D15-920E-435998EDDC96}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B22F8403-25D1-472F-8EF8-FE3866B625C3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{169C3851-C2C3-46D2-9C97-F8EC07CA4D04}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9225F447-C052-4B80-9D84-AF08492378C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C50E17E0-1B69-48E8-A932-90E48F1787FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F115BE5D-86A6-4964-B842-2D8FA8FCDFE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{977AABDE-0EE0-4311-85AB-7735BFA5A5E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E8D130A-380D-4D5B-9BE3-6EB425C8040D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A80F7FE7-7FFC-49F4-B173-611102C92D3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C790F286-3331-45C5-AC18-61AF668DAC01}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F1A32A0-4508-4235-8B2E-8BA681F88BA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{800CE636-F5A5-46E0-B6B2-4FD3AE1E449C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98B1EBC6-BEFC-430C-B068-A20E28954A84}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA0A16CC-69BF-4D82-A4E9-64CF3F470437}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0DB011C-6644-4ECD-9E37-A1B85170BDA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CA4BCB4-D909-47DC-9F8B-4767D9B3C9EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B85CC930-DE3D-482D-A621-22E6BB8B44D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E8229C7-C018-4CB7-B244-E76B159C0042}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21758687-FACC-4E8A-81A4-AB8342692DD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D03135F-FAE0-4C35-8E29-53098854107F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{813AA399-71FD-470C-836F-2C0C4BB23F13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A17B9F32-BA00-46D3-9B3F-3CF53B7D3F46}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98F27C5A-EF2B-45EF-AB9D-F0B9AD3AB050}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7730,7 +7730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16493C0A-8DC6-400F-AD27-2BC23B94DA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BBFC73-4731-4A5A-B61F-96CE9C95EC5A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8992,18 +8992,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{094AD532-4D9C-42C3-8281-705CF051655B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97B5930C-0DE3-4F9C-91C8-C448CF01273A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A98211A-3468-4CBE-AA4F-C24F914A0879}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D184C40-CFB4-4957-AD6B-AF14D9DF6E5F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{328FA2C0-C578-4D31-8B20-3E5DB0CD15B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6D381CE-C5A8-4BDF-AEDB-57C29BF175F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1389FA7-3151-42C4-AEA2-6F6018F3A9AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{746068E1-7D4F-43FC-B5A4-D13A1184CB7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4E8106E-2EC1-41A4-AC5A-7303915EE291}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E746D469-A9CD-4752-A2FA-B753D7E64AD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1B97962-CFF1-4A7A-A57A-8E70834085F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3EF6F98-1249-40E3-B9DC-6D6A34296FAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8253553F-8005-4A0D-AA53-D56FA343CDEC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4B75944-01AA-47FE-B327-5D7A607309F3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BEE90B6A-1DF5-4E10-8543-47445C5EEF75}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{079E96C3-FECF-40B7-88B8-E7DB0D1EBF1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35A6C3F5-6C2B-48B9-8910-E7FECAACA716}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{414BB7BD-B08A-4945-8D61-BF0482C92E2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA461CC9-F229-490B-97FE-A02B402DE4A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21FEF906-A7E5-4335-AB7F-17B30B902D39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B4B11EB-A92B-41AC-9EFC-987E1EFF1D11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{317EBC57-36CE-4392-AE13-D690167CAAF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE2EDA80-F2AA-4243-AEA7-754189BE3D77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99EF9010-D44A-4F8D-B7A6-0D22DD33EE57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9016,7 +9016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B34C510-6CFF-48F6-9EA2-807F46D8D5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFAD82F-8BC3-4E9E-82BB-9C02A52222C3}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10278,18 +10278,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4355BD46-B575-4F5B-97A0-C2D060488E0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4B94E1F-1627-470C-B7FA-F2467ECE25E0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9FF538E-4703-49F0-9EEC-210FDF782D9D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B614026-10C5-4C92-BF4E-F37DF1350B9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{290A9E55-AD84-4D74-9578-59C8D3680C57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D66DFE9-3A4C-406B-88DF-36296263B963}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FE9C7DB-E2EC-4577-9C4C-0BEC954536B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F1B09CC-0573-4B13-BE1B-D879A577361D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2456CE55-18F7-40B0-941C-0C60E1AB89BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3B304DC-39A8-4A31-837F-1C86C759259B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96AA9CE6-1793-434B-9764-1E97478B698B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{310A0C08-A2AB-4B40-8A08-24076F28BDF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0416BCB1-EE65-4BDD-BA49-4BFFC3F7372F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58CE80A6-A335-4CB8-86CF-0E69C154C802}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C7B9C742-76FF-4050-BBDB-5410F32D2FB9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D76E06E2-6901-43C3-B39C-BBFBC2326FFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5782C3CA-EAA7-4AA0-B31A-43BD6DD4BB0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A49E2934-F4A6-427C-A002-C4E9D9BC90FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6195A48A-A2EA-4D3A-97C7-C7ADF225B04B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54A6EAAA-54C9-4AA4-922E-E93D041EB05B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82A47C5B-1437-4443-9786-23BE9FD70EA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92131FCB-7322-4612-BDC4-EE1D74D49D07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B5FC49E-203F-4E43-8E42-AD6CFFF9D54F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6C421D6-9363-4683-8605-21854BAE1987}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10302,7 +10302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BFCA8-5C54-40D4-A174-2EA477C1EBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58449A70-C8E3-4806-AE75-C6C65387E35D}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11564,18 +11564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07F9576C-CE9E-42E5-95A8-491F1D7E6684}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F7E8442-8632-4FBE-8EF7-CB35F7CF810A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD47A500-6092-4089-9F52-DF40C6EFEF0E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{886C3A4B-FE0D-410B-8A10-BF04124932DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64DB9048-F407-459F-B4C9-CA014E4AD02C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33DA3F1B-4976-4C6D-8A1C-D2BCED02C297}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB913CE0-78E3-45B4-8054-4C8B6A709A08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8177D7F4-9FA6-41C4-BC45-3861633A7A92}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{331B9D4B-0913-470D-8C17-CC1F0A181AA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE4511FD-42A8-4D7B-81C1-675C270CC20C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86EB7A51-FEF2-4FB7-B47D-BBD8B4B6928E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3867A079-F4A0-4A2C-8FC7-1DC649EC7437}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB947399-483A-412D-9993-F5D70F7AEEFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AD8C661-F43F-4E25-A03D-6105EACB92C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7ABD13E-FB18-4976-AD1B-F6E92365237E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F43E80BB-868B-434D-86EA-6A2A1A2D9006}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6FF4907-84C5-4DDD-BF5A-100717F80295}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56F4D14D-DABF-42BE-9F9F-50BDF7DDEA2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F26A8311-82D9-4C77-8118-0F12AC34D1AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C11CD64C-1615-4A43-808B-873DE19A2AB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{713F6956-3FD1-44F4-8DD1-1224F0E08EEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C88925D0-1133-4150-AD69-FF27BB325D65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56023C17-F0AB-4158-B2F9-A9D7860BD9F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD1DF7EF-F6BD-4EDF-B8CA-34BB1EA79CE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11588,7 +11588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B867A0-6803-4E49-ABD7-3CE1F58A9869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B41A25-524C-4D53-B386-FF45FD7CB989}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12842,18 +12842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48CC1158-22B4-42B8-8CE3-37020AACB228}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F1EA035-1016-4366-8EBC-742B06B0CF60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AFD082F3-BC12-40F7-8148-3E77AE653A61}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85677D52-1F29-4E86-8B9B-5297441CA4F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0E4D741-7DAA-42BC-B509-579BEAC50DFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39574413-85E8-4708-9A63-FC62C5982FCD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2616EA8-1923-42AB-A474-125C00C5F1C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1382229C-22D1-44A5-B10F-33AC0598AC5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9D83E67-0094-4C9E-A9AF-A6CB5FCBED30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A756DEE-3575-4E3B-9E18-80A3ED6F4CF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4949273-42A4-42D1-8D91-494DEA959344}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AD14A4F-1F2C-4F3C-A9CE-EF16107A7D19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CEF2D3A-3718-4D5E-9C40-750B344EC62C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5197A969-34F8-4889-ACEB-3A6C34315C16}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78CF87A9-92FC-446B-B052-A1CA5FCCA434}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12F42CF0-2EA3-487F-A0D0-9F663F0EAD46}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38D44A4E-B801-4D21-B3FA-E0B221B6F35D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F41F8F3F-A164-4C92-9C5A-04EE801EFF26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5E0742C-A9B5-4F00-9AB8-89BC67F9CC13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97DC62AB-7953-4D92-9A87-2B5353421126}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F39C30AF-AA06-4E71-9C57-26832D3FA6F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E0DB173-6FC7-4451-9A1B-1E7DDF9E2F7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78071088-5E58-4C16-A3FB-30E68A66C755}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA4A4F3C-F561-4A40-90AE-D665E0792836}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12866,7 +12866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E6E53-F3D2-4BDD-AFAB-51C02EBEE7B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257247C7-54EB-434A-B76B-7A752BE2FAF2}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14116,18 +14116,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B936CEEB-DE9C-454D-A7FD-1836CEF59E26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3153E91-06F0-4C6E-A7AE-B14EC2F5600F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A12C19F7-88C6-4202-8ADD-10E80E373D0B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A03DE85-45A5-4D9A-A0EC-9B73B8A24583}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98FC86AF-EAC8-471D-ADFD-126EA634F30E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E62136F-748C-4E06-AEB2-F5B6204201B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5B5B49C-708B-4FC3-8D69-FD820F7C3B28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA802675-D12D-4165-A3FA-2B0D6A0961CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A66DE69-59EE-4B04-B425-3F7279E8C3C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7636AD1C-A8FF-43BB-AD65-E011ADB33179}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C980B3FE-1FDF-4B40-8A2A-E44F778036FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28DE35E5-6103-4C66-B13E-C43150C84CD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{816065ED-7146-4B74-AB6A-FD9CFA097C0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DC4800A-8905-4A1A-B3D5-082CBB06732A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE669CA8-2DB5-4922-A4DD-23176F6C32B8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFB782AC-0FCE-4C36-8FF8-1CB0B2277BEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90C2CD17-CFE2-4B36-8E9D-8B00BA14951E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7E87F39-682C-4A28-B4FB-B4D4F048BD3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6D0FFF0-9D39-4B44-85CF-D7ED218E82D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA3A3250-DB0C-4F2B-861C-2B04752B77D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC7E5956-9F91-4C5C-BCC3-5E5887756E6E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E61A62EB-D2CC-4415-AB51-71781FD822C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00F70C58-D285-4C91-85DE-6061599B5606}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D486BEA1-50DA-4A1A-8D17-BE20880179B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14140,7 +14140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0750A4CE-9D49-47D6-8FFA-46F9E8F6C5C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB47E6D4-EF8F-4A8C-BC28-351D5862D1DE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15390,18 +15390,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ECCB1FB-4F2C-4F7D-88CD-41FD8C4B2213}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F297801-FE1D-461F-A1BB-70E593CB1D94}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23367836-3F03-4409-B0EE-7F89C979B83B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C365AB19-CB3A-48EA-BD1D-E6A49E26107F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DA759F1-A317-47B6-A1A1-BE577E2628BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8213C9F-90E9-4DBE-B9D3-4EC9D3657FA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49D0072A-0C17-4BD4-9B1C-72D82B810638}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C97681BD-58CA-46CC-B35C-3E196ED7ABCA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C1859A4-54E0-4B35-9C3F-7463C77EDCCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92C960D5-4187-4AD8-B674-248582130C78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB4B7384-72D5-4E2B-860B-E4D02A67259B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7770831-5CB4-4776-928F-2E2D6249C7E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DCCF461-9AAC-4B43-A542-3DEF0AB58D68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{767E70CA-F94C-40D1-B1DD-892D8C9A32BB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF7AEA6F-AE3F-4FA0-891C-FF9E1194CEF2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD31DAB3-8336-4767-A8DA-E44DA5149669}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{098F7E3F-15A1-4E35-9597-D20F1B5F09E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{392C7A05-4EE2-4CBD-AED1-892A681D1141}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60A0E168-75E8-43A9-A8E6-BAA68084E7AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EC3B70E-0F83-4517-9E52-2B1FE7CA4C8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA4D2354-4325-4D50-8E2C-5945C5335ADC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E13843B3-7465-4CB9-91ED-8AF1AD559EE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63BF419F-A0BA-4F17-9C1F-20711F3C3BEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63CB5DFC-F702-43D6-A426-871BEFCBBA6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15414,7 +15414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB9D3C-DAD0-4E39-9CED-0E21DDECA626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC5E56C-D713-4519-A605-5D13DEC0CD88}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16664,18 +16664,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90F22416-CF90-4617-9EE7-D8D8FA19F4E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8AD0AB3-1734-4651-AB37-CF2DEAC4DB9E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1264DFEA-4FE6-4F4A-9D53-9E2669FF2107}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5BB5FE9B-13D0-41A7-A4BD-E2A3557121B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CD3ABC1-AB9E-4435-904A-6A710B509984}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E8E1E7A-DE55-4C39-8896-F59336D61518}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{107DB243-284E-4D0C-833D-B0ED83EE24A4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1804A2AF-7010-40B9-AC66-C3F3884D972B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4214B5A6-115D-4394-B21B-80A6DF90774C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F50E508-245A-42C2-988E-886E0783F9F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0D94C4D-5C1D-4869-BD98-F583AB3D852D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{089D2287-3721-4A37-A7CC-3BEABF838E40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{993A4139-A1C7-4923-9822-AEC19901B1ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7F20CEE-2CB1-4518-AA2C-B815859B1CE8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DC7A832-EA21-4304-B708-86D48E0FA55D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0F405E6-BAB5-4DAC-B567-6A8EA4D0AC68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9FD6B5E-8AAF-4C61-85D5-708BBC579BE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85074710-1902-4496-997D-5D228342A06C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6765B06-C924-437E-A97F-8FA8B7B298C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1B3C54F-C829-492D-BB9A-97010514D71B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3635EAC7-5A02-4F47-B122-05D7246302B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C9663CF-EB6D-4581-AD9D-F1D544A01469}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11A5F927-A9CF-4995-B8C4-861A2CB40CDC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01099939-47A4-4679-9726-0C3B27FC38AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
